--- a/uploads/parent_import.xlsx
+++ b/uploads/parent_import.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCM\Desktop\07-10-2017-bulk_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,88 +20,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>father's_name</t>
-  </si>
-  <si>
-    <t>mother's_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>user_email</t>
-  </si>
-  <si>
-    <t>father's_profession</t>
-  </si>
-  <si>
-    <t>mother's_profession</t>
-  </si>
-  <si>
-    <t>father's_id</t>
-  </si>
-  <si>
-    <t>father's_id_type</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>zip_code</t>
-  </si>
-  <si>
-    <t>mobile_#</t>
-  </si>
-  <si>
-    <t>home_#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Mother's Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Father's Profession</t>
+  </si>
+  <si>
+    <t>Mother's Profession</t>
+  </si>
+  <si>
+    <t>Father's Id</t>
+  </si>
+  <si>
+    <t>Father's Id Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Mobile #</t>
+  </si>
+  <si>
+    <t>Home #</t>
   </si>
   <si>
     <t>Father's Last Name</t>
   </si>
   <si>
-    <t>fathere name</t>
-  </si>
-  <si>
-    <t>father last name</t>
-  </si>
-  <si>
-    <t>father@father.com</t>
-  </si>
-  <si>
-    <t>fprofession</t>
-  </si>
-  <si>
-    <t>motherprofession</t>
-  </si>
-  <si>
-    <t>fatherid</t>
-  </si>
-  <si>
-    <t>fatheridtype</t>
-  </si>
-  <si>
-    <t>addresss</t>
-  </si>
-  <si>
-    <t>fatherelatname</t>
+    <t>tempFath Name</t>
+  </si>
+  <si>
+    <t>useremail123@emamil.com</t>
+  </si>
+  <si>
+    <t>mothere last name1</t>
+  </si>
+  <si>
+    <t>temp Moth Name1</t>
+  </si>
+  <si>
+    <t>no prof</t>
+  </si>
+  <si>
+    <t>mother prof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +102,11 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -135,8 +131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -446,127 +443,128 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>4143124</v>
-      </c>
-      <c r="N2">
-        <v>34536612</v>
-      </c>
-      <c r="O2">
-        <v>4143124</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
+      <c r="G2" s="1">
+        <v>3124</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43214</v>
+      </c>
+      <c r="I2" s="1">
+        <v>31243</v>
+      </c>
+      <c r="J2" s="1">
+        <v>31242</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3124</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43214</v>
+      </c>
+      <c r="M2" s="1">
+        <v>413234</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4312443155</v>
+      </c>
+      <c r="O2" s="1">
+        <v>413223412</v>
+      </c>
+      <c r="P2" s="1">
+        <v>431212345</v>
       </c>
     </row>
   </sheetData>
